--- a/Backlog Geral.xlsx
+++ b/Backlog Geral.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - Fatec Centro Paula Souza\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CC2AB9-2DF0-4088-B139-ABE230DA4DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE553245-B69F-46F8-9D05-3F377DBF0761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{DF361BFA-0721-45F2-9E93-C02372C8A71A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{DF361BFA-0721-45F2-9E93-C02372C8A71A}"/>
   </bookViews>
   <sheets>
     <sheet name="backlog do produto" sheetId="1" r:id="rId1"/>
-    <sheet name="backlog da sprint 1°" sheetId="4" r:id="rId2"/>
-    <sheet name="backlog da sprint 2°" sheetId="3" r:id="rId3"/>
+    <sheet name="backlog da sprint 3º" sheetId="5" r:id="rId2"/>
+    <sheet name="backlog da sprint 1°" sheetId="4" r:id="rId3"/>
+    <sheet name="backlog da sprint 2°" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'backlog da sprint 2°'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'backlog da sprint 2°'!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'backlog do produto'!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="73">
   <si>
     <t>Área</t>
   </si>
@@ -254,9 +257,6 @@
     <t>Apresentar o progresso do desenvolvimento da 2 sprint</t>
   </si>
   <si>
-    <t>Automação de clonagem de todos os gits</t>
-  </si>
-  <si>
     <t>Layout do site</t>
   </si>
   <si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>Desenvolvimento da automação de raspagem</t>
+  </si>
+  <si>
+    <t>Fazer executavel da automatização da clonagem de todos os gits</t>
   </si>
 </sst>
 </file>
@@ -988,18 +991,18 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B10" sqref="A10:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="36" style="11" customWidth="1"/>
-    <col min="3" max="4" width="62.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="22.44140625" style="11" customWidth="1"/>
+    <col min="3" max="4" width="62.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.90625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -1019,7 +1022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>42</v>
       </c>
@@ -1039,7 +1042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>42</v>
       </c>
@@ -1059,7 +1062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>36</v>
       </c>
@@ -1079,7 +1082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>36</v>
       </c>
@@ -1087,7 +1090,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>40</v>
@@ -1099,7 +1102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>36</v>
       </c>
@@ -1119,7 +1122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
@@ -1139,7 +1142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>36</v>
       </c>
@@ -1159,7 +1162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
@@ -1167,10 +1170,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>38</v>
@@ -1179,7 +1182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>36</v>
       </c>
@@ -1187,10 +1190,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" s="27" t="s">
         <v>56</v>
@@ -1199,7 +1202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>36</v>
       </c>
@@ -1219,7 +1222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>36</v>
       </c>
@@ -1239,7 +1242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>36</v>
       </c>
@@ -1259,7 +1262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>36</v>
       </c>
@@ -1279,7 +1282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
         <v>36</v>
       </c>
@@ -1299,7 +1302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C26" s="28"/>
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
@@ -1307,7 +1310,7 @@
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>26</v>
       </c>
@@ -1325,7 +1328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>26</v>
       </c>
@@ -1343,7 +1346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>31</v>
       </c>
@@ -1361,7 +1364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>8</v>
       </c>
@@ -1379,7 +1382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
       <c r="C46" s="7"/>
@@ -1387,7 +1390,7 @@
       <c r="E46" s="10"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5"/>
       <c r="B47" s="6"/>
       <c r="C47" s="7"/>
@@ -1395,7 +1398,7 @@
       <c r="E47" s="10"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="7"/>
@@ -1403,7 +1406,7 @@
       <c r="E48" s="10"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>8</v>
       </c>
@@ -1421,7 +1424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>8</v>
       </c>
@@ -1439,7 +1442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>8</v>
       </c>
@@ -1457,7 +1460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>8</v>
       </c>
@@ -1475,7 +1478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>13</v>
       </c>
@@ -1493,7 +1496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>16</v>
       </c>
@@ -1511,7 +1514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>8</v>
       </c>
@@ -1529,7 +1532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>8</v>
       </c>
@@ -1555,6 +1558,109 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD986DA-0CC2-4832-93D1-899821963151}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.36328125" customWidth="1"/>
+    <col min="2" max="2" width="25.36328125" customWidth="1"/>
+    <col min="3" max="3" width="57.90625" customWidth="1"/>
+    <col min="4" max="4" width="39.26953125" customWidth="1"/>
+    <col min="5" max="5" width="22.81640625" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="13">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="13">
+        <v>2</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="13">
+        <v>4</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="15">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BFDBDC4-846F-4812-979F-3D255AA19540}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -1562,17 +1668,17 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="32.88671875" customWidth="1"/>
-    <col min="4" max="4" width="52.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" customWidth="1"/>
+    <col min="3" max="3" width="32.90625" customWidth="1"/>
+    <col min="4" max="4" width="52.453125" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -1592,7 +1698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
         <v>42</v>
       </c>
@@ -1612,7 +1718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>42</v>
       </c>
@@ -1632,7 +1738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>36</v>
       </c>
@@ -1652,7 +1758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>36</v>
       </c>
@@ -1660,7 +1766,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>40</v>
@@ -1672,7 +1778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>36</v>
       </c>
@@ -1697,23 +1803,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95034160-AD9C-4E18-83E3-459C7846932B}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="36" style="11" customWidth="1"/>
-    <col min="3" max="4" width="62.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="22.44140625" style="11" customWidth="1"/>
+    <col min="3" max="4" width="62.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.90625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1733,7 +1839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>59</v>
       </c>
@@ -1753,7 +1859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>36</v>
       </c>
@@ -1773,7 +1879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>36</v>
       </c>
@@ -1793,7 +1899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>36</v>
       </c>
@@ -1813,7 +1919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>62</v>
       </c>
@@ -1833,11 +1939,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>26</v>
       </c>
@@ -1855,7 +1961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>26</v>
       </c>
@@ -1873,7 +1979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>31</v>
       </c>
@@ -1891,7 +1997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>8</v>
       </c>
@@ -1909,7 +2015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
@@ -1917,7 +2023,7 @@
       <c r="E35" s="10"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
@@ -1925,7 +2031,7 @@
       <c r="E36" s="10"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="7"/>
@@ -1933,7 +2039,7 @@
       <c r="E37" s="10"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>8</v>
       </c>
@@ -1951,7 +2057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>8</v>
       </c>
@@ -1969,7 +2075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>8</v>
       </c>
@@ -1987,7 +2093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>8</v>
       </c>
@@ -2005,7 +2111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>13</v>
       </c>
@@ -2023,7 +2129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>16</v>
       </c>
@@ -2041,7 +2147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>8</v>
       </c>
@@ -2059,7 +2165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>8</v>
       </c>
